--- a/apoyo calculos.xlsx
+++ b/apoyo calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Profesional\cursos\python\curso 2\proyecto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7A967-5D30-4AB3-93E9-31411E196490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BC316-25E9-44A8-A8AF-B466BB537056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opción 1" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>Sea</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Por ganancia total</t>
+  </si>
+  <si>
+    <t>Para crear esta estrategia desde python creamos 3 listas ordenadas de difernete forma, como se muestra a continuación, podemos observar que según se ordena aparecen algunos paises diferentes y otros mas que se mantienen en 2 o mas lístas, por lo que se busca cuales y que rutas se relacionan en cada lista, obteniendo asi los 3 tipos de rutas (azul, amarilla, naranja)</t>
+  </si>
+  <si>
+    <t>Para crear esta estrategia desde python creamos La lista de los datos a utilizar, posteriormente al notar que Road seria eliminado deicidimos repartir su porcentage como un total entre las restantes para despues obtener la diferencia entre lo que se gana por road y lo que se ganaria al aumentar su porcentage a las diferentes rutas</t>
+  </si>
+  <si>
+    <t>Para crear esta estrategia desde python creamos La lista de los datos a utilizar con los datos mostrados y ordenados según el premedio de ganancia, una vez obtenida  buscamos la diferencia que existia entre el promeido y la media, y los clasificamos por colores, de igual forma se marca el 80% segun lo mencionado en la opción</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,15 +1179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1209,6 +1215,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1258,7 +1277,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1364,10 +1383,38 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="34" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="37" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="37" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="37" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="37" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1376,37 +1423,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="36" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="36" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="37" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="37" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="36" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="36" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="37" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="37" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1764,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5BC78F-6CE3-4C2A-8004-37557C9F1CEA}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,590 +1812,607 @@
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" s="96" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="G1" s="77" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="G3" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="75" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G4" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="75" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C5" s="54">
         <v>539</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D5" s="53">
         <v>8441000000</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E5" s="55">
         <v>15660482.374768</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I5" s="27">
         <v>51</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J5" s="26">
         <v>1713000000</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K5" s="61">
         <v>33588235.2941176</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C6" s="42">
         <v>520</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D6" s="43">
         <v>7364000000</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E6" s="47">
         <v>14161538.461538401</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I6" s="1">
         <v>103</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J6" s="2">
         <v>3402000000</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K6" s="50">
         <v>33029126.213592201</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B7" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C7" s="42">
         <v>497</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D7" s="43">
         <v>6877007000</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E7" s="47">
         <v>13837036.217303799</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2">
-        <v>540000000</v>
-      </c>
-      <c r="K5" s="50">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1">
-        <v>494</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5128249000</v>
-      </c>
-      <c r="E6" s="50">
-        <v>10381070.8502024</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1">
-        <v>114</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3357000000</v>
-      </c>
-      <c r="K6" s="50">
-        <v>29447368.421052601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1">
-        <v>473</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3549142000</v>
-      </c>
-      <c r="E7" s="50">
-        <v>7503471.4587737797</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="1">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2">
-        <v>2238000000</v>
+        <v>540000000</v>
       </c>
       <c r="K7" s="50">
-        <v>29447368.421052601</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="D8" s="2">
-        <v>7585875000</v>
+        <v>5128249000</v>
       </c>
       <c r="E8" s="50">
-        <v>16140159.574468</v>
-      </c>
-      <c r="G8" s="73" t="s">
+        <v>10381070.8502024</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="71">
-        <v>451</v>
-      </c>
-      <c r="J8" s="72">
-        <v>13084000000</v>
-      </c>
-      <c r="K8" s="74">
-        <v>29011086.474501099</v>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1">
+        <v>114</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3357000000</v>
+      </c>
+      <c r="K8" s="50">
+        <v>29447368.421052601</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="71">
-        <v>451</v>
-      </c>
-      <c r="D9" s="72">
-        <v>13084000000</v>
-      </c>
-      <c r="E9" s="74">
-        <v>29011086.474501099</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="81">
-        <v>239</v>
-      </c>
-      <c r="J9" s="82">
-        <v>5956088000</v>
-      </c>
-      <c r="K9" s="83">
-        <v>24920870.292886999</v>
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1">
+        <v>473</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3549142000</v>
+      </c>
+      <c r="E9" s="50">
+        <v>7503471.4587737797</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1">
+        <v>76</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2238000000</v>
+      </c>
+      <c r="K9" s="50">
+        <v>29447368.421052601</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>470</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7585875000</v>
+      </c>
+      <c r="E10" s="50">
+        <v>16140159.574468</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="67">
+        <v>451</v>
+      </c>
+      <c r="J10" s="68">
+        <v>13084000000</v>
+      </c>
+      <c r="K10" s="70">
+        <v>29011086.474501099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="67">
+        <v>451</v>
+      </c>
+      <c r="D11" s="68">
+        <v>13084000000</v>
+      </c>
+      <c r="E11" s="70">
+        <v>29011086.474501099</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="76">
+        <v>239</v>
+      </c>
+      <c r="J11" s="77">
+        <v>5956088000</v>
+      </c>
+      <c r="K11" s="78">
+        <v>24920870.292886999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>436</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D12" s="2">
         <v>1032187000</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E12" s="50">
         <v>2367401.3761467799</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I12" s="1">
         <v>15</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J12" s="2">
         <v>368000000</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K12" s="50">
         <v>24533333.333333299</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C13" s="42">
         <v>422</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D13" s="43">
         <v>7660342000</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E13" s="47">
         <v>18152469.194312699</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H13" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I13" s="76">
         <v>363</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J13" s="77">
         <v>8904949000</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K13" s="78">
         <v>24531539.9449035</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="10">
         <v>378</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D14" s="9">
         <v>3969000000</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E14" s="51">
         <v>10500000</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I14" s="10">
         <v>205</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J14" s="9">
         <v>5023000000</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K14" s="51">
         <v>24502439.024390198</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="77" t="s">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="84" t="s">
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86" t="s">
+      <c r="E17" s="92"/>
+      <c r="F17" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H17" s="80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="88" t="s">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E18" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F18" s="82">
         <v>451</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G18" s="83">
         <v>13084000000</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H18" s="84">
         <v>29011086.474501099</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="80" t="s">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E19" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F19" s="76">
         <v>363</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G19" s="77">
         <v>8904949000</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H19" s="78">
         <v>24531539.9449035</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="46" t="s">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F20" s="42">
         <v>539</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G20" s="43">
         <v>8441000000</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H20" s="47">
         <v>15660482.374768</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="42">
-        <v>422</v>
-      </c>
-      <c r="G19" s="43">
-        <v>7660342000</v>
-      </c>
-      <c r="H19" s="47">
-        <v>18152469.194312699</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1">
-        <v>470</v>
-      </c>
-      <c r="G20" s="2">
-        <v>7585875000</v>
-      </c>
-      <c r="H20" s="50">
-        <v>16140159.574468</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="42">
+        <v>422</v>
+      </c>
+      <c r="G21" s="43">
+        <v>7660342000</v>
+      </c>
+      <c r="H21" s="47">
+        <v>18152469.194312699</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>470</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7585875000</v>
+      </c>
+      <c r="H22" s="50">
+        <v>16140159.574468</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="42">
         <v>520</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G23" s="43">
         <v>7364000000</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H23" s="47">
         <v>14161538.461538401</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="46" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E24" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F24" s="42">
         <v>497</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G24" s="43">
         <v>6877007000</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H24" s="47">
         <v>13837036.217303799</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="6" t="s">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="1">
         <v>283</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <v>6494000000</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H25" s="50">
         <v>22946996.466430999</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="6" t="s">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F26" s="1">
         <v>356</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <v>5967000000</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H26" s="50">
         <v>16761235.955056099</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="92" t="s">
+    <row r="27" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E27" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F27" s="86">
         <v>239</v>
       </c>
-      <c r="G25" s="94">
+      <c r="G27" s="87">
         <v>5956088000</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H27" s="88">
         <v>24920870.292886999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:E15"/>
+  <mergeCells count="7">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2372,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,232 +2435,251 @@
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="1:11" s="96" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C4" s="26">
         <v>100530622000</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D4" s="26">
         <v>9405933.9446107708</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E4" s="27">
         <v>10688</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F4" s="28">
         <v>0.56087321578505456</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G4" s="28">
         <v>0.56087321578505456</v>
       </c>
-      <c r="H3" s="27">
-        <f>D12*E3</f>
+      <c r="H4" s="27">
+        <f>D13*E4</f>
         <v>894.35218390804607</v>
       </c>
-      <c r="I3" s="29">
-        <f>H3*D3</f>
+      <c r="I4" s="29">
+        <f>H4*D4</f>
         <v>8412217565.0574656</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>43628043000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>12903887.3114463</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>3381</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>0.17742443324937027</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>0.73829764903442485</v>
-      </c>
-      <c r="H4" s="1">
-        <f>D13*E4</f>
-        <v>90.93724137931035</v>
-      </c>
-      <c r="I4" s="7">
-        <f>H4*D4</f>
-        <v>1173443915.1724122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>38262147000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16015967.7689409</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2389</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.13633501259445843</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.87463266162888331</v>
       </c>
       <c r="H5" s="1">
         <f>D14*E5</f>
-        <v>32.1689628748844</v>
+        <v>90.93724137931035</v>
       </c>
       <c r="I5" s="7">
         <f>H5*D5</f>
+        <v>1173443915.1724122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>38262147000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16015967.7689409</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2389</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.13633501259445843</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.87463266162888331</v>
+      </c>
+      <c r="H6" s="1">
+        <f>D15*E6</f>
+        <v>32.1689628748844</v>
+      </c>
+      <c r="I6" s="7">
+        <f>H6*D6</f>
         <v>515217072.5644049</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <v>33270486000</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>12806191.685912199</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>2598</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>0.12536733837111672</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5">
-        <f>SUM(I3:I6)</f>
+      <c r="I8" s="5">
+        <f>SUM(I4:I7)</f>
         <v>10100878552.794283</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="90"/>
+      <c r="D10" s="93"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+    <row r="12" spans="1:11" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
         <v>87</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>0.13</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
         <v>56</v>
       </c>
-      <c r="C12" s="18">
-        <f>(B12*$C$11)/$B$11</f>
+      <c r="C13" s="18">
+        <f>(B13*$C$12)/$B$12</f>
         <v>0.64367816091954022</v>
       </c>
-      <c r="D12" s="19">
-        <f>C12*D11</f>
+      <c r="D13" s="19">
+        <f>C13*D12</f>
         <v>8.3678160919540237E-2</v>
       </c>
-      <c r="G12" s="21">
-        <f>C6</f>
+      <c r="G13" s="21">
+        <f>C7</f>
         <v>33270486000</v>
       </c>
-      <c r="H12" s="22">
-        <f>I7-G12</f>
+      <c r="H13" s="22">
+        <f>I8-G13</f>
         <v>-23169607447.205719</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
         <v>18</v>
       </c>
-      <c r="C13" s="18">
-        <f>(B13*$C$11)/$B$11</f>
+      <c r="C14" s="18">
+        <f>(B14*$C$12)/$B$12</f>
         <v>0.20689655172413793</v>
       </c>
-      <c r="D13" s="19">
-        <f>C13*D11</f>
+      <c r="D14" s="19">
+        <f>C14*D12</f>
         <v>2.6896551724137931E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C14" s="18">
-        <f>(B14*$C$11)/$B$11</f>
+      <c r="C15" s="18">
+        <f>(B15*$C$12)/$B$12</f>
         <v>0.16091954022988506</v>
       </c>
-      <c r="D14" s="20">
-        <f>C14*D12</f>
+      <c r="D15" s="20">
+        <f>C15*D13</f>
         <v>1.3465451182454751E-2</v>
       </c>
+      <c r="I15">
+        <v>-23169607447.205719</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="2">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2620,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,710 +2704,733 @@
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="37" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" s="96" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:11" s="37" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B3" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D3" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E3" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F3" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B4" s="53">
         <v>7848000000</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C4" s="53">
         <v>30395348.837209299</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D4" s="53">
         <v>35000000</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="55">
-        <f t="shared" ref="F2:F32" si="0">C2-D2</f>
+      <c r="F4" s="55">
+        <f t="shared" ref="F4:F34" si="0">C4-D4</f>
         <v>-4604651.1627907008</v>
       </c>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B5" s="43">
         <v>1516000000</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C5" s="43">
         <v>20887323.943661898</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D5" s="43">
         <v>21000000</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F5" s="47">
         <f t="shared" si="0"/>
         <v>-112676.05633810163</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B6" s="45">
         <v>8894000000</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C6" s="45">
         <v>20628770.301624101</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D6" s="45">
         <v>16000000</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F6" s="49">
         <f t="shared" si="0"/>
         <v>4628770.3016241007</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B7" s="45">
         <v>18614332000</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C7" s="45">
         <v>20222583.877995599</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D7" s="45">
         <v>12500000</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>7722583.8779955991</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B8" s="45">
         <v>32977046000</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C8" s="45">
         <v>19888916.666666601</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D8" s="45">
         <v>12000000</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>7888916.6666666009</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B9" s="43">
         <v>3018000000</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C9" s="43">
         <v>19134615.384615298</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D9" s="43">
         <v>22000000</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F9" s="47">
         <f t="shared" si="0"/>
         <v>-2865384.6153847016</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B10" s="45">
         <v>3758000000</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C10" s="45">
         <v>18775000</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D10" s="45">
         <v>15500000</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>3275000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B11" s="45">
         <v>10684000000</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C11" s="45">
         <v>17684385.382059801</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D11" s="45">
         <v>9000000</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F11" s="49">
         <f t="shared" si="0"/>
         <v>8684385.3820598014</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B12" s="45">
         <v>13223000000</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C12" s="45">
         <v>17279738.5620915</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D12" s="45">
         <v>12000000</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>5279738.5620914996</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B13" s="45">
         <v>13745000000</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C13" s="45">
         <v>16482551.1432009</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D13" s="45">
         <v>16000000</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>482551.14320090041</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B14" s="45">
         <v>5109000000</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C14" s="45">
         <v>14423728.813559299</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D14" s="45">
         <v>6000000</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>8423728.8135592993</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I14" s="41">
         <v>0.8</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J14" s="40">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B15" s="45">
         <v>5828000000</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C15" s="45">
         <v>14055690.072639201</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D15" s="45">
         <v>13000000</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>1055690.0726392008</v>
       </c>
-      <c r="H13" s="26">
-        <f>SUM(B2:B32)</f>
+      <c r="H15" s="26">
+        <f>SUM(B4:B34)</f>
         <v>215691298000</v>
       </c>
-      <c r="I13" s="38">
-        <f>H13*I12</f>
+      <c r="I15" s="38">
+        <f>H15*I14</f>
         <v>172553038400</v>
       </c>
-      <c r="J13" s="38">
-        <f>H13*J12</f>
+      <c r="J15" s="38">
+        <f>H15*J14</f>
         <v>43138259600</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B16" s="45">
         <v>14621146000</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C16" s="45">
         <v>12882741.3945278</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D16" s="45">
         <v>11000000</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>1882741.3945278004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B17" s="45">
         <v>18355306000</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C17" s="45">
         <v>12534727.272727201</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D17" s="45">
         <v>8000000</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>4534727.2727272008</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B18" s="45">
         <v>2188000000</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C18" s="45">
         <v>12420454.5454545</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D18" s="45">
         <v>12000000</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>420454.54545450024</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B19" s="45">
         <v>3418000000</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C19" s="45">
         <v>11608843.537414899</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D19" s="45">
         <v>6000000</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>5608843.5374148991</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B20" s="45">
         <v>2588000000</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C20" s="45">
         <v>10533057.851239599</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D20" s="45">
         <v>7000000</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>3533057.8512395993</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B21" s="45">
         <v>5366684000</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C21" s="45">
         <v>9543108.7344028503</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D21" s="45">
         <v>4000</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>9539108.7344028503</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B22" s="63">
         <v>11948976000</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C22" s="63">
         <v>9487242.0382165592</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D22" s="63">
         <v>5000000</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E22" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F22" s="65">
         <f t="shared" si="0"/>
         <v>4487242.0382165592</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="70" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B23" s="26">
         <v>11343233000</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C23" s="26">
         <v>8735883.3075734098</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D23" s="26">
         <v>160500</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F23" s="61">
         <f t="shared" si="0"/>
         <v>8575383.3075734098</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="2">
         <v>2154000000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>8677419.3548387103</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>8000000</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F24" s="50">
         <f t="shared" si="0"/>
         <v>677419.35483871028</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>2274000000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>5741772.1518987296</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>5000000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>741772.15189872961</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>2572000000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="2">
         <v>5198380.5668016197</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26" s="2">
         <v>4000000</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F26" s="50">
         <f t="shared" si="0"/>
         <v>1198380.5668016197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="2">
         <v>4120369000</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="2">
         <v>5179080.5031446498</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D27" s="2">
         <v>2000000</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
         <v>3179080.5031446498</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>2626000000</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <v>4647163.1205673702</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <v>4000000</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F28" s="50">
         <f t="shared" si="0"/>
         <v>647163.12056737021</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>1052000000</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>4138339.9209486102</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>4000000</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F29" s="50">
         <f t="shared" si="0"/>
         <v>138339.92094861018</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="2">
         <v>2777612000</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <v>3185760.9195402199</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>1000</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F30" s="50">
         <f t="shared" si="0"/>
         <v>3184760.9195402199</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="2">
         <v>1650000000</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C31" s="2">
         <v>1911832.9466357301</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <v>1000000</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F31" s="50">
         <f t="shared" si="0"/>
         <v>911832.9466357301</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B32" s="2">
         <v>1419755000</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C32" s="2">
         <v>1819396.8871595301</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>45000</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F32" s="50">
         <f t="shared" si="0"/>
         <v>1774396.8871595301</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B33" s="2">
         <v>1155000</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C33" s="2">
         <v>2649.0825688073301</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="2">
         <v>2000</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F33" s="50">
         <f t="shared" si="0"/>
         <v>649.08256880733006</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B34" s="9">
         <v>684000</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C34" s="9">
         <v>2589.3536121673001</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D34" s="9">
         <v>1000</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F34" s="51">
         <f t="shared" si="0"/>
         <v>1589.3536121673001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
-    <sortCondition descending="1" ref="C2:C32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F34">
+    <sortCondition descending="1" ref="C4:C34"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="H20:I20"/>
+  <mergeCells count="2">
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
